--- a/aio1.xlsx
+++ b/aio1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="486">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,10 +548,6 @@
   </si>
   <si>
     <t>빈칸에 공통으로 알맞은 말을 쓰시오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_____________</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1106,6 +1102,1042 @@
   </si>
   <si>
     <t>그녀는 참 친절하구나!(kind)&lt;br&gt;-&gt;_____________ she is!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How kindly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How a kind woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어법상 틀린 부분을 고쳐 문장을 다시 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What an expensive pants these are!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What an expensive pants this is!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a expensive pant this is!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What expensive pants these are!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How expensive pants these are!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How expensive these are!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What expensive pants these are!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 문장을 How로 시작하는 감탄문으로 바꿔 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This cheese cake is so delicious.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How delicious this cheese cake is!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How this cheese cake is so delicious!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How so delicious this cheese cake!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How delicious this cheese cake!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How delicious this cheese cake is so!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말과 일치하도록 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름은 Shelly예요.&lt;br&gt;_____________ is Shelly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 기분이 어떠니?&lt;br&gt;_____________ you feel today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞지 않은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_____________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : How are you today, Jina?&lt;br&gt;B : _____________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm fine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty good.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See you soon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very well, thanks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 상대방의 안부를 묻는 말이 아닌 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How's it going?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are things?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말과 일치하도록 주어진 단어를 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신에게 제 소개를 하겠습니다.&lt;br&gt;(you / me / myself / to / introduce / let)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me introduce myself to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 a~d를 바르게 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : How was your weekend?&lt;br&gt;B : It was great.&lt;br&gt;a : Did you enjoy it?&lt;br&gt;b : Yeah. It was really funny.&lt;br&gt;c : I saw a movie at the cinema.&lt;br&gt;d : What did you do?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d-c-a-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 것을 고르시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : _____________&lt;br&gt;B : I watched a soccer match.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you play soccer well?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you do yesterday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you watch a soccer match?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you enjoy the soccer match?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where did you watch a soccer match?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : _____________&lt;br&gt;B : Yeah, I really love baseball.&lt;br&gt;A : Then, how about going to the stadium with me tomorrow?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's your email address?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isn't baseball boring?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you like to eat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you interested in baseball?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you win the baseball game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말과 일치하도록 주어진 단어를 이용하여 영작하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 시를 쓰는 것에 관심이 있어.&lt;br&gt;(interested, write, poems)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm interested in writing poems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 공통으로 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What are you interested _____________?&lt;br&gt;B : I'm interested _____________ cooking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 질문과 바꾸어 쓸 수 없는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much is it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the price?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much does it cost?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much do you have?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much do I owe you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much do you charge for it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 나머지 넷과 의미가 다른 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's have a walk after dinner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do you have a walk after dinner?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How about having a walk after dinner?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What about having a walk after dinner?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why don't we have a walk after dinner?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연스러운 대화가 되도록 주어진 말을 바르게 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Can I help you?&lt;br&gt;B : Yes, please. (looking / a / I'm / backpack / for / .)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm looking for a backpack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Excuse me, how much is this pen?&lt;br&gt;B : It's 1,000 won.&lt;br&gt;A : Okay, I'll _____________ it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 밑줄 친 (1) ~ (5) 중 어색한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A : (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>May I help you?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;B : (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do you have a swim suit?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;A : Of course. (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How about this one?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is very popular this season.&lt;br&gt;B : It looks nice. (4)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How much are they?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;A : (5)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's 50 dollars.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can[Will] you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is your favorite / What, best[most]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화를 자연스럽게 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a) Action. I love Iron man.&lt;br&gt;(b)What kind of movie do you like most?&lt;br&gt;©Comedy. How about you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Can you help me?&lt;br&gt;B : _____________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certainly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My pleasure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, I can't.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't mention it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 밑줄 친 부분과 바꿔 쓸 수 없는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you give me a hand with this?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I ask you a favor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you help me for a second?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I help you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wonder if you could help me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can you do me a favor?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;B : Okay, what is it?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)너는 이번 토요일에 무엇을 할 거니?&lt;br&gt;-&gt;_____________ going to do this Saturday?&lt;br&gt;(2)나는 집을 청소할 거야.&lt;br&gt;-&gt;_____________ clean my house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you / I will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : _____________ open the window, please?&lt;br&gt;B : Sure. Are you hot?&lt;br&gt;A : Yes, I am.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)네가 가장 좋아하는 취미는 뭐니?&lt;br&gt;-&gt;_____________ hobby?&lt;br&gt;(2)너는 어떤 운동을 가장 좋아하니?&lt;br&gt;-&gt;_____________ sport do you like _____________?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What _____________ this weekend?&lt;br&gt;B : I'm going to go camping.&lt;br&gt;How about you?&lt;br&gt;A : I'm _____________ go to the movies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you going(planning) to do / going(planning) to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 중 어색한 부분을 찾아 바르게 고쳐 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Is Tom read a book now?&lt;br&gt;B : No, he isn't.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read -&gt; reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 질문을 주어진 단어를 이용하여 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : _____________&lt;br&gt;(going, this, Saturday)&lt;br&gt;B : I'm going to visit an orphanage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you going to do this Saturday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝지어진 대화 중 어색한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 그 쓰임이 다른 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)~(5)중 대화의 흐름상 어색한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : (1)You don't look well. What's the matter?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B : (2)I have a headache.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : (3)Do you have a fever?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B : (4)Yes. And I have a runny nose.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I think you got a cold. (5)Work out regularly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Where are Jack and Tom?&lt;br&gt;B : They're play tennis in the park.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Are you going to go out this evening?&lt;br&gt;B : No, I'm too tired.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Tomorrow is Dad's birthday.&lt;br&gt;B : Really? What are you going to do for him?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What does Jen look like?&lt;br&gt;B : She has blue eyes and is wearing glasses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Is it raining in Daejeon?&lt;br&gt;Yes, it does.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)책을 펼쳐라.&lt;br&gt;_____________ your books.&lt;br&gt;(2) 모임에 늦지 마.&lt;br&gt;_____________ late for the meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How surprising!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's surprising.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you believe it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's hard to believe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's incredible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)Look! Ted is playing soccer there.&lt;br&gt;(b)Yes. He is also very good at swimming.&lt;br&gt;©Wow, he is a nice soccer player, isn't he?&lt;br&gt;(d)That's surprising.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A : Look at this picture. I took this picture at my grandma's birthday party.&lt;br&gt;B : Was your grandma wearing a red jacket? She was smiling.&lt;br&gt;A : All the familiy members celebrated her 100th birday.&lt;br&gt;B : Her 100th birthday? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can't believe it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're joking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a surprise!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is believable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is hard to believe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's incredible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How are</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce let me myself to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce me let myself to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let myself Introduce me to you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You let me Introduce to myself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-b-c-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-c-a-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-a-b-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d-c-a-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d-c-b-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I interested in write peoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm interested writing peoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm interested in poems writing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm interested writing poems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-c-b-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-d-c-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-b-d-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d-b-a-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open / Don't be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-c-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do / Not be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open / Be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't open / Let's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's / Don't be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't need your help.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My pleasure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go ahead.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's your best / How, better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is my favorite / What, better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How is your favorite / What most</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What your favorite is / What best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-b-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-a-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-a-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-c-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you / I do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you / I can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you / You will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you / I must</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do you do / doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you able to / able to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you going to / able to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you going to / have to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is -&gt; Do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is -&gt; Will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read - reads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read -&gt; is read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What going you to do this Saturday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are going to do this Saturday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is going to do this Saturday?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you going do this Saturday?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,12 +2201,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1473,7 +2511,7 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1506,7 +2544,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1541,7 +2579,7 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>3</v>
       </c>
       <c r="K2" t="s">
@@ -1576,7 +2614,7 @@
       <c r="I3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -1611,7 +2649,7 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>4</v>
       </c>
       <c r="K4" t="s">
@@ -1646,7 +2684,7 @@
       <c r="I5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>4</v>
       </c>
       <c r="K5" t="s">
@@ -1681,7 +2719,7 @@
       <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
       <c r="K6" t="s">
@@ -1716,7 +2754,7 @@
       <c r="I7" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -1751,7 +2789,7 @@
       <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
       <c r="K8" t="s">
@@ -1786,7 +2824,7 @@
       <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>4</v>
       </c>
       <c r="K9" t="s">
@@ -1821,7 +2859,7 @@
       <c r="I10" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
       <c r="K10" t="s">
@@ -1856,7 +2894,7 @@
       <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" t="s">
@@ -1891,7 +2929,7 @@
       <c r="I12" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>5</v>
       </c>
       <c r="K12" t="s">
@@ -1926,7 +2964,7 @@
       <c r="I13" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>5</v>
       </c>
       <c r="K13" t="s">
@@ -1961,7 +2999,7 @@
       <c r="I14" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>5</v>
       </c>
       <c r="K14" t="s">
@@ -1996,7 +3034,7 @@
       <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>5</v>
       </c>
       <c r="K15" t="s">
@@ -2031,7 +3069,7 @@
       <c r="I16" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>2</v>
       </c>
       <c r="K16" t="s">
@@ -2066,7 +3104,7 @@
       <c r="I17" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>3</v>
       </c>
       <c r="K17" t="s">
@@ -2101,7 +3139,7 @@
       <c r="I18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>5</v>
       </c>
       <c r="K18" t="s">
@@ -2136,7 +3174,7 @@
       <c r="I19" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>5</v>
       </c>
       <c r="K19" t="s">
@@ -2171,7 +3209,7 @@
       <c r="I20" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>3</v>
       </c>
       <c r="K20" t="s">
@@ -2206,7 +3244,7 @@
       <c r="I21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>3</v>
       </c>
       <c r="K21" t="s">
@@ -2241,7 +3279,7 @@
       <c r="I22" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>3</v>
       </c>
       <c r="K22" t="s">
@@ -2276,7 +3314,7 @@
       <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>4</v>
       </c>
       <c r="K23" t="s">
@@ -2311,7 +3349,7 @@
       <c r="I24" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>3</v>
       </c>
       <c r="K24" t="s">
@@ -2346,7 +3384,7 @@
       <c r="I25" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>2</v>
       </c>
       <c r="K25" t="s">
@@ -2381,7 +3419,7 @@
       <c r="I26" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>3</v>
       </c>
       <c r="K26" t="s">
@@ -2416,7 +3454,7 @@
       <c r="I27" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <v>5</v>
       </c>
       <c r="K27" t="s">
@@ -2451,7 +3489,7 @@
       <c r="I28" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" t="s">
@@ -2486,7 +3524,7 @@
       <c r="I29" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>2</v>
       </c>
       <c r="K29" t="s">
@@ -2521,7 +3559,7 @@
       <c r="I30" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" t="s">
@@ -2556,7 +3594,7 @@
       <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="3">
         <v>4</v>
       </c>
       <c r="K31" t="s">
@@ -2591,7 +3629,7 @@
       <c r="I32" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2599,6 +3637,9 @@
       <c r="A33">
         <v>2</v>
       </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -2620,7 +3661,7 @@
       <c r="I33" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2628,6 +3669,9 @@
       <c r="A34">
         <v>3</v>
       </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
       <c r="C34" t="s">
         <v>88</v>
       </c>
@@ -2649,7 +3693,7 @@
       <c r="I34" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
         <v>3</v>
       </c>
       <c r="K34" t="s">
@@ -2660,6 +3704,9 @@
       <c r="A35">
         <v>4</v>
       </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
       <c r="C35" t="s">
         <v>102</v>
       </c>
@@ -2681,7 +3728,7 @@
       <c r="I35" t="s">
         <v>99</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2689,6 +3736,9 @@
       <c r="A36">
         <v>5</v>
       </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" t="s">
         <v>101</v>
       </c>
@@ -2710,7 +3760,7 @@
       <c r="I36" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="3">
         <v>2</v>
       </c>
       <c r="K36" t="s">
@@ -2721,6 +3771,9 @@
       <c r="A37">
         <v>6</v>
       </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
       <c r="C37" t="s">
         <v>109</v>
       </c>
@@ -2742,7 +3795,7 @@
       <c r="I37" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2750,6 +3803,9 @@
       <c r="A38">
         <v>7</v>
       </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
       <c r="C38" t="s">
         <v>102</v>
       </c>
@@ -2771,7 +3827,7 @@
       <c r="I38" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2779,6 +3835,9 @@
       <c r="A39">
         <v>8</v>
       </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
       <c r="C39" t="s">
         <v>122</v>
       </c>
@@ -2800,7 +3859,7 @@
       <c r="I39" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2808,92 +3867,101 @@
       <c r="A40">
         <v>9</v>
       </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
       <c r="C40" t="s">
         <v>130</v>
       </c>
       <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" t="s">
         <v>132</v>
       </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>136</v>
       </c>
-      <c r="H40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I40" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10</v>
       </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
       <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>139</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>141</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>142</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>143</v>
       </c>
-      <c r="I41" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11</v>
       </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
       <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
         <v>145</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>146</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>147</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>148</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>149</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>150</v>
       </c>
-      <c r="I42" t="s">
-        <v>151</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="J42" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2901,60 +3969,66 @@
       <c r="A43">
         <v>12</v>
       </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
       <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
         <v>152</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>153</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>154</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>155</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>156</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>157</v>
       </c>
-      <c r="I43" t="s">
-        <v>158</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13</v>
       </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
       <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
         <v>159</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>160</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>161</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>162</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>163</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>164</v>
       </c>
-      <c r="I44" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="J44" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2962,28 +4036,31 @@
       <c r="A45">
         <v>14</v>
       </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
       <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
         <v>166</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>167</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>168</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>169</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>170</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>171</v>
       </c>
-      <c r="I45" t="s">
-        <v>172</v>
-      </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2991,57 +4068,66 @@
       <c r="A46">
         <v>15</v>
       </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
       <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
         <v>173</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
         <v>174</v>
-      </c>
-      <c r="E46" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" t="s">
-        <v>179</v>
-      </c>
-      <c r="H46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" t="s">
-        <v>180</v>
-      </c>
-      <c r="K46" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>16</v>
       </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
       <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>182</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>183</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>184</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>185</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>186</v>
       </c>
-      <c r="I47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3049,92 +4135,101 @@
       <c r="A48">
         <v>17</v>
       </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
       <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
         <v>188</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>189</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>190</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>191</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>192</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>193</v>
       </c>
-      <c r="I48" t="s">
-        <v>194</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="J48" s="3">
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>18</v>
       </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
       <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
         <v>195</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>196</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>197</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>198</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>199</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>200</v>
       </c>
-      <c r="I49" t="s">
-        <v>201</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="J49" s="3">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>19</v>
       </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
       <c r="C50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" t="s">
         <v>202</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" t="s">
         <v>203</v>
       </c>
-      <c r="E50" t="s">
-        <v>206</v>
-      </c>
-      <c r="F50" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>207</v>
       </c>
-      <c r="H50" t="s">
-        <v>204</v>
-      </c>
-      <c r="I50" t="s">
-        <v>208</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="J50" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3142,124 +4237,136 @@
       <c r="A51">
         <v>20</v>
       </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
       <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
         <v>216</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
         <v>217</v>
-      </c>
-      <c r="E51" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" t="s">
-        <v>220</v>
-      </c>
-      <c r="G51" t="s">
-        <v>221</v>
-      </c>
-      <c r="H51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I51" t="s">
-        <v>223</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>21</v>
       </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
       <c r="C52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" t="s">
         <v>209</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>210</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>211</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>212</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>213</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>214</v>
       </c>
-      <c r="I52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>5</v>
       </c>
       <c r="K52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>22</v>
       </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
       <c r="C53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" t="s">
         <v>224</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>225</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>226</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>227</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>228</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>229</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
         <v>230</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>23</v>
       </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
       <c r="C54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" t="s">
         <v>232</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>233</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>234</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>235</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>236</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>237</v>
       </c>
-      <c r="I54" t="s">
-        <v>238</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3267,28 +4374,31 @@
       <c r="A55">
         <v>24</v>
       </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
       <c r="C55" t="s">
         <v>102</v>
       </c>
       <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" t="s">
         <v>239</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>240</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>241</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>242</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>243</v>
       </c>
-      <c r="I55" t="s">
-        <v>244</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="J55" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3296,98 +4406,1220 @@
       <c r="A56">
         <v>25</v>
       </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
       <c r="C56" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" t="s">
         <v>245</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" t="s">
         <v>246</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>248</v>
       </c>
-      <c r="F56" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>249</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>250</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" s="3">
+        <v>3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
         <v>251</v>
       </c>
-      <c r="J56" s="1">
+      <c r="E57" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H57" t="s">
+        <v>255</v>
+      </c>
+      <c r="I57" t="s">
+        <v>256</v>
+      </c>
+      <c r="J57" s="3">
         <v>3</v>
       </c>
-      <c r="K56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" t="s">
-        <v>252</v>
-      </c>
-      <c r="E57" t="s">
-        <v>253</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="K57" t="s">
         <v>254</v>
       </c>
-      <c r="G57" t="s">
-        <v>255</v>
-      </c>
-      <c r="H57" t="s">
-        <v>256</v>
-      </c>
-      <c r="I57" t="s">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
         <v>257</v>
       </c>
-      <c r="J57" s="1">
+      <c r="D58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" t="s">
+        <v>260</v>
+      </c>
+      <c r="G58" t="s">
+        <v>261</v>
+      </c>
+      <c r="H58" t="s">
+        <v>262</v>
+      </c>
+      <c r="I58" t="s">
+        <v>263</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" t="s">
+        <v>270</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" t="s">
+        <v>273</v>
+      </c>
+      <c r="F60" t="s">
+        <v>274</v>
+      </c>
+      <c r="G60" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="3">
         <v>3</v>
       </c>
-      <c r="K57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" t="s">
-        <v>259</v>
-      </c>
-      <c r="E58" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" t="s">
-        <v>262</v>
-      </c>
-      <c r="H58" t="s">
-        <v>263</v>
-      </c>
-      <c r="I58" t="s">
-        <v>264</v>
-      </c>
-      <c r="J58" s="1">
+      <c r="K60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" t="s">
+        <v>283</v>
+      </c>
+      <c r="G61" t="s">
+        <v>284</v>
+      </c>
+      <c r="H61" t="s">
+        <v>285</v>
+      </c>
+      <c r="I61" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
-      <c r="D59" t="s">
-        <v>266</v>
+      <c r="B62" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" t="s">
+        <v>418</v>
+      </c>
+      <c r="F62" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" t="s">
+        <v>420</v>
+      </c>
+      <c r="H62" t="s">
+        <v>421</v>
+      </c>
+      <c r="I62" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3</v>
+      </c>
+      <c r="K62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E63" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" t="s">
+        <v>424</v>
+      </c>
+      <c r="H63" t="s">
+        <v>425</v>
+      </c>
+      <c r="I63" t="s">
+        <v>426</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" t="s">
+        <v>295</v>
+      </c>
+      <c r="F64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" t="s">
+        <v>298</v>
+      </c>
+      <c r="I64" t="s">
+        <v>299</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65" t="s">
+        <v>302</v>
+      </c>
+      <c r="G65" t="s">
+        <v>303</v>
+      </c>
+      <c r="H65" t="s">
+        <v>304</v>
+      </c>
+      <c r="I65" t="s">
+        <v>305</v>
+      </c>
+      <c r="J65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" t="s">
+        <v>427</v>
+      </c>
+      <c r="F66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" t="s">
+        <v>429</v>
+      </c>
+      <c r="H66" t="s">
+        <v>430</v>
+      </c>
+      <c r="I66" t="s">
+        <v>308</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>431</v>
+      </c>
+      <c r="F67" t="s">
+        <v>432</v>
+      </c>
+      <c r="G67" t="s">
+        <v>433</v>
+      </c>
+      <c r="H67" t="s">
+        <v>434</v>
+      </c>
+      <c r="I67" t="s">
+        <v>435</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" t="s">
+        <v>316</v>
+      </c>
+      <c r="H68" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68" t="s">
+        <v>318</v>
+      </c>
+      <c r="J68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" t="s">
+        <v>321</v>
+      </c>
+      <c r="G69" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69" t="s">
+        <v>323</v>
+      </c>
+      <c r="I69" t="s">
+        <v>324</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" t="s">
+        <v>436</v>
+      </c>
+      <c r="F70" t="s">
+        <v>437</v>
+      </c>
+      <c r="G70" t="s">
+        <v>327</v>
+      </c>
+      <c r="H70" t="s">
+        <v>438</v>
+      </c>
+      <c r="I70" t="s">
+        <v>439</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3</v>
+      </c>
+      <c r="K70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" t="s">
+        <v>440</v>
+      </c>
+      <c r="F71" t="s">
+        <v>441</v>
+      </c>
+      <c r="G71" t="s">
+        <v>442</v>
+      </c>
+      <c r="H71" t="s">
+        <v>443</v>
+      </c>
+      <c r="I71" t="s">
+        <v>444</v>
+      </c>
+      <c r="J71" s="3">
+        <v>3</v>
+      </c>
+      <c r="K71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" t="s">
+        <v>333</v>
+      </c>
+      <c r="F72" t="s">
+        <v>334</v>
+      </c>
+      <c r="G72" t="s">
+        <v>335</v>
+      </c>
+      <c r="H72" t="s">
+        <v>336</v>
+      </c>
+      <c r="I72" t="s">
+        <v>337</v>
+      </c>
+      <c r="J72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" t="s">
+        <v>339</v>
+      </c>
+      <c r="F73" t="s">
+        <v>340</v>
+      </c>
+      <c r="G73" t="s">
+        <v>341</v>
+      </c>
+      <c r="H73" t="s">
+        <v>342</v>
+      </c>
+      <c r="I73" t="s">
+        <v>343</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" t="s">
+        <v>346</v>
+      </c>
+      <c r="F74" t="s">
+        <v>371</v>
+      </c>
+      <c r="G74" t="s">
+        <v>459</v>
+      </c>
+      <c r="H74" t="s">
+        <v>460</v>
+      </c>
+      <c r="I74" t="s">
+        <v>461</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" t="s">
+        <v>348</v>
+      </c>
+      <c r="E75" t="s">
+        <v>349</v>
+      </c>
+      <c r="F75" t="s">
+        <v>350</v>
+      </c>
+      <c r="G75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H75" t="s">
+        <v>352</v>
+      </c>
+      <c r="I75" t="s">
+        <v>353</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" t="s">
+        <v>354</v>
+      </c>
+      <c r="D76" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J76" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" t="s">
+        <v>381</v>
+      </c>
+      <c r="E77" t="s">
+        <v>453</v>
+      </c>
+      <c r="F77" t="s">
+        <v>452</v>
+      </c>
+      <c r="G77" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" t="s">
+        <v>454</v>
+      </c>
+      <c r="I77" t="s">
+        <v>451</v>
+      </c>
+      <c r="J77" s="2">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" t="s">
+        <v>462</v>
+      </c>
+      <c r="F78" t="s">
+        <v>363</v>
+      </c>
+      <c r="G78" t="s">
+        <v>463</v>
+      </c>
+      <c r="H78" t="s">
+        <v>464</v>
+      </c>
+      <c r="I78" t="s">
+        <v>465</v>
+      </c>
+      <c r="J78" s="2">
+        <v>2</v>
+      </c>
+      <c r="K78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" t="s">
+        <v>466</v>
+      </c>
+      <c r="F79" t="s">
+        <v>467</v>
+      </c>
+      <c r="G79" t="s">
+        <v>468</v>
+      </c>
+      <c r="H79" t="s">
+        <v>450</v>
+      </c>
+      <c r="I79" t="s">
+        <v>469</v>
+      </c>
+      <c r="J79" s="2">
+        <v>4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" t="s">
+        <v>366</v>
+      </c>
+      <c r="E80" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" t="s">
+        <v>369</v>
+      </c>
+      <c r="H80" t="s">
+        <v>370</v>
+      </c>
+      <c r="I80" t="s">
+        <v>371</v>
+      </c>
+      <c r="J80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" t="s">
+        <v>372</v>
+      </c>
+      <c r="D81" t="s">
+        <v>378</v>
+      </c>
+      <c r="E81" t="s">
+        <v>373</v>
+      </c>
+      <c r="F81" t="s">
+        <v>374</v>
+      </c>
+      <c r="G81" t="s">
+        <v>375</v>
+      </c>
+      <c r="H81" t="s">
+        <v>376</v>
+      </c>
+      <c r="I81" t="s">
+        <v>377</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" t="s">
+        <v>379</v>
+      </c>
+      <c r="E82" t="s">
+        <v>470</v>
+      </c>
+      <c r="F82" t="s">
+        <v>471</v>
+      </c>
+      <c r="G82" t="s">
+        <v>380</v>
+      </c>
+      <c r="H82" t="s">
+        <v>472</v>
+      </c>
+      <c r="I82" t="s">
+        <v>473</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3</v>
+      </c>
+      <c r="K82" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" t="s">
+        <v>383</v>
+      </c>
+      <c r="D83" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" t="s">
+        <v>474</v>
+      </c>
+      <c r="F83" t="s">
+        <v>385</v>
+      </c>
+      <c r="G83" t="s">
+        <v>475</v>
+      </c>
+      <c r="H83" t="s">
+        <v>476</v>
+      </c>
+      <c r="I83" t="s">
+        <v>477</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2</v>
+      </c>
+      <c r="K83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" t="s">
+        <v>387</v>
+      </c>
+      <c r="E84" t="s">
+        <v>478</v>
+      </c>
+      <c r="F84" t="s">
+        <v>479</v>
+      </c>
+      <c r="G84" t="s">
+        <v>480</v>
+      </c>
+      <c r="H84" t="s">
+        <v>388</v>
+      </c>
+      <c r="I84" t="s">
+        <v>481</v>
+      </c>
+      <c r="J84" s="2">
+        <v>4</v>
+      </c>
+      <c r="K84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" t="s">
+        <v>389</v>
+      </c>
+      <c r="D85" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" t="s">
+        <v>391</v>
+      </c>
+      <c r="F85" t="s">
+        <v>482</v>
+      </c>
+      <c r="G85" t="s">
+        <v>483</v>
+      </c>
+      <c r="H85" t="s">
+        <v>484</v>
+      </c>
+      <c r="I85" t="s">
+        <v>485</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" t="s">
+        <v>392</v>
+      </c>
+      <c r="E86" t="s">
+        <v>400</v>
+      </c>
+      <c r="F86" t="s">
+        <v>401</v>
+      </c>
+      <c r="G86" t="s">
+        <v>402</v>
+      </c>
+      <c r="H86" t="s">
+        <v>403</v>
+      </c>
+      <c r="I86" t="s">
+        <v>404</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" t="s">
+        <v>405</v>
+      </c>
+      <c r="E87" t="s">
+        <v>449</v>
+      </c>
+      <c r="F87" t="s">
+        <v>455</v>
+      </c>
+      <c r="G87" t="s">
+        <v>456</v>
+      </c>
+      <c r="H87" t="s">
+        <v>457</v>
+      </c>
+      <c r="I87" t="s">
+        <v>458</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>393</v>
+      </c>
+      <c r="E88" t="s">
+        <v>406</v>
+      </c>
+      <c r="F88" t="s">
+        <v>407</v>
+      </c>
+      <c r="G88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H88" t="s">
+        <v>409</v>
+      </c>
+      <c r="I88" t="s">
+        <v>410</v>
+      </c>
+      <c r="J88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>394</v>
+      </c>
+      <c r="E89" t="s">
+        <v>395</v>
+      </c>
+      <c r="F89" t="s">
+        <v>396</v>
+      </c>
+      <c r="G89" t="s">
+        <v>397</v>
+      </c>
+      <c r="H89" t="s">
+        <v>398</v>
+      </c>
+      <c r="I89" t="s">
+        <v>399</v>
+      </c>
+      <c r="J89" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" t="s">
+        <v>364</v>
+      </c>
+      <c r="D90" t="s">
+        <v>411</v>
+      </c>
+      <c r="E90" t="s">
+        <v>431</v>
+      </c>
+      <c r="F90" t="s">
+        <v>446</v>
+      </c>
+      <c r="G90" t="s">
+        <v>447</v>
+      </c>
+      <c r="H90" t="s">
+        <v>445</v>
+      </c>
+      <c r="I90" t="s">
+        <v>448</v>
+      </c>
+      <c r="J90" s="2">
+        <v>4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" t="s">
+        <v>372</v>
+      </c>
+      <c r="D91" t="s">
+        <v>412</v>
+      </c>
+      <c r="E91" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G91" t="s">
+        <v>415</v>
+      </c>
+      <c r="H91" t="s">
+        <v>416</v>
+      </c>
+      <c r="I91" t="s">
+        <v>417</v>
+      </c>
+      <c r="J91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/aio1.xlsx
+++ b/aio1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ygImsRv7kz3pQHk0H7GDL+aenOaFj2vbL3H6m6PlYhEfLcsdbjpkeBoXORTBSxu0L6TIKarbTZjF0QmmIWm1mg==" workbookSaltValue="07jp1mjl5qPULBhBXftvSg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="aio1" sheetId="2" r:id="rId1"/>
+    <sheet name="aio1" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="485">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,10 +1211,6 @@
   </si>
   <si>
     <t>대화의 빈칸에 알맞지 않은 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_____________</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2494,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4623,19 +4620,19 @@
         <v>288</v>
       </c>
       <c r="E62" t="s">
+        <v>417</v>
+      </c>
+      <c r="F62" t="s">
         <v>418</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>419</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>420</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>421</v>
-      </c>
-      <c r="I62" t="s">
-        <v>422</v>
       </c>
       <c r="J62" s="3">
         <v>3</v>
@@ -4658,19 +4655,19 @@
         <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F63" t="s">
         <v>291</v>
       </c>
       <c r="G63" t="s">
+        <v>423</v>
+      </c>
+      <c r="H63" t="s">
         <v>424</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>425</v>
-      </c>
-      <c r="I63" t="s">
-        <v>426</v>
       </c>
       <c r="J63" s="3">
         <v>2</v>
@@ -4690,22 +4687,22 @@
         <v>292</v>
       </c>
       <c r="D64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" t="s">
         <v>294</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>295</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>296</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>297</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>298</v>
-      </c>
-      <c r="I64" t="s">
-        <v>299</v>
       </c>
       <c r="J64" s="3">
         <v>4</v>
@@ -4722,22 +4719,22 @@
         <v>102</v>
       </c>
       <c r="D65" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" t="s">
         <v>300</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>301</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>302</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>304</v>
-      </c>
-      <c r="I65" t="s">
-        <v>305</v>
       </c>
       <c r="J65" s="3">
         <v>4</v>
@@ -4751,31 +4748,31 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
         <v>306</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66" t="s">
+        <v>427</v>
+      </c>
+      <c r="G66" t="s">
+        <v>428</v>
+      </c>
+      <c r="H66" t="s">
+        <v>429</v>
+      </c>
+      <c r="I66" t="s">
         <v>307</v>
-      </c>
-      <c r="E66" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" t="s">
-        <v>428</v>
-      </c>
-      <c r="G66" t="s">
-        <v>429</v>
-      </c>
-      <c r="H66" t="s">
-        <v>430</v>
-      </c>
-      <c r="I66" t="s">
-        <v>308</v>
       </c>
       <c r="J66" s="3">
         <v>5</v>
       </c>
       <c r="K66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4786,31 +4783,31 @@
         <v>286</v>
       </c>
       <c r="C67" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" t="s">
         <v>309</v>
       </c>
-      <c r="D67" t="s">
-        <v>310</v>
-      </c>
       <c r="E67" t="s">
+        <v>430</v>
+      </c>
+      <c r="F67" t="s">
         <v>431</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>432</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>433</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>434</v>
-      </c>
-      <c r="I67" t="s">
-        <v>435</v>
       </c>
       <c r="J67" s="3">
         <v>4</v>
       </c>
       <c r="K67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4821,25 +4818,25 @@
         <v>286</v>
       </c>
       <c r="C68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" t="s">
         <v>312</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>313</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>314</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>316</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>317</v>
-      </c>
-      <c r="I68" t="s">
-        <v>318</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -4853,25 +4850,25 @@
         <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" t="s">
         <v>319</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>320</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>321</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>322</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>323</v>
-      </c>
-      <c r="I69" t="s">
-        <v>324</v>
       </c>
       <c r="J69" s="2">
         <v>4</v>
@@ -4885,31 +4882,31 @@
         <v>286</v>
       </c>
       <c r="C70" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" t="s">
         <v>325</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>435</v>
+      </c>
+      <c r="F70" t="s">
+        <v>436</v>
+      </c>
+      <c r="G70" t="s">
         <v>326</v>
       </c>
-      <c r="E70" t="s">
-        <v>436</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>437</v>
       </c>
-      <c r="G70" t="s">
-        <v>327</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>438</v>
-      </c>
-      <c r="I70" t="s">
-        <v>439</v>
       </c>
       <c r="J70" s="3">
         <v>3</v>
       </c>
       <c r="K70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4920,31 +4917,31 @@
         <v>286</v>
       </c>
       <c r="C71" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" t="s">
         <v>328</v>
       </c>
-      <c r="D71" t="s">
-        <v>329</v>
-      </c>
       <c r="E71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" t="s">
         <v>440</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>441</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>442</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>443</v>
-      </c>
-      <c r="I71" t="s">
-        <v>444</v>
       </c>
       <c r="J71" s="3">
         <v>3</v>
       </c>
       <c r="K71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4955,25 +4952,25 @@
         <v>286</v>
       </c>
       <c r="C72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" t="s">
         <v>331</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>332</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>333</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>334</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>335</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>336</v>
-      </c>
-      <c r="I72" t="s">
-        <v>337</v>
       </c>
       <c r="J72" s="2">
         <v>3</v>
@@ -4990,22 +4987,22 @@
         <v>102</v>
       </c>
       <c r="D73" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73" t="s">
         <v>338</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>339</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>340</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>341</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>342</v>
-      </c>
-      <c r="I73" t="s">
-        <v>343</v>
       </c>
       <c r="J73" s="2">
         <v>2</v>
@@ -5019,31 +5016,31 @@
         <v>286</v>
       </c>
       <c r="C74" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" t="s">
         <v>344</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>345</v>
       </c>
-      <c r="E74" t="s">
-        <v>346</v>
-      </c>
       <c r="F74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G74" t="s">
+        <v>458</v>
+      </c>
+      <c r="H74" t="s">
         <v>459</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>460</v>
-      </c>
-      <c r="I74" t="s">
-        <v>461</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -5054,25 +5051,25 @@
         <v>286</v>
       </c>
       <c r="C75" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" t="s">
         <v>347</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>348</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>349</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>350</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>351</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>352</v>
-      </c>
-      <c r="I75" t="s">
-        <v>353</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -5086,25 +5083,25 @@
         <v>286</v>
       </c>
       <c r="C76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D76" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="J76" s="2">
         <v>4</v>
@@ -5118,31 +5115,31 @@
         <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E77" t="s">
+        <v>452</v>
+      </c>
+      <c r="F77" t="s">
+        <v>451</v>
+      </c>
+      <c r="G77" t="s">
+        <v>361</v>
+      </c>
+      <c r="H77" t="s">
         <v>453</v>
       </c>
-      <c r="F77" t="s">
-        <v>452</v>
-      </c>
-      <c r="G77" t="s">
-        <v>362</v>
-      </c>
-      <c r="H77" t="s">
-        <v>454</v>
-      </c>
       <c r="I77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J77" s="2">
         <v>3</v>
       </c>
       <c r="K77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -5156,28 +5153,28 @@
         <v>287</v>
       </c>
       <c r="D78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
+        <v>461</v>
+      </c>
+      <c r="F78" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" t="s">
         <v>462</v>
       </c>
-      <c r="F78" t="s">
-        <v>363</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>463</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>464</v>
-      </c>
-      <c r="I78" t="s">
-        <v>465</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
       </c>
       <c r="K78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -5188,31 +5185,31 @@
         <v>286</v>
       </c>
       <c r="C79" t="s">
+        <v>363</v>
+      </c>
+      <c r="D79" t="s">
         <v>364</v>
       </c>
-      <c r="D79" t="s">
-        <v>365</v>
-      </c>
       <c r="E79" t="s">
+        <v>465</v>
+      </c>
+      <c r="F79" t="s">
         <v>466</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>467</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>449</v>
+      </c>
+      <c r="I79" t="s">
         <v>468</v>
-      </c>
-      <c r="H79" t="s">
-        <v>450</v>
-      </c>
-      <c r="I79" t="s">
-        <v>469</v>
       </c>
       <c r="J79" s="2">
         <v>4</v>
       </c>
       <c r="K79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -5226,22 +5223,22 @@
         <v>292</v>
       </c>
       <c r="D80" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" t="s">
         <v>366</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>367</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>368</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>369</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>370</v>
-      </c>
-      <c r="I80" t="s">
-        <v>371</v>
       </c>
       <c r="J80" s="2">
         <v>5</v>
@@ -5255,25 +5252,25 @@
         <v>286</v>
       </c>
       <c r="C81" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" t="s">
         <v>372</v>
       </c>
-      <c r="D81" t="s">
-        <v>378</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>373</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>374</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>375</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>376</v>
-      </c>
-      <c r="I81" t="s">
-        <v>377</v>
       </c>
       <c r="J81" s="2">
         <v>4</v>
@@ -5290,28 +5287,28 @@
         <v>287</v>
       </c>
       <c r="D82" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>469</v>
+      </c>
+      <c r="F82" t="s">
+        <v>470</v>
+      </c>
+      <c r="G82" t="s">
         <v>379</v>
       </c>
-      <c r="E82" t="s">
-        <v>470</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>471</v>
       </c>
-      <c r="G82" t="s">
-        <v>380</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>472</v>
-      </c>
-      <c r="I82" t="s">
-        <v>473</v>
       </c>
       <c r="J82" s="2">
         <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -5322,31 +5319,31 @@
         <v>286</v>
       </c>
       <c r="C83" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" t="s">
         <v>383</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" t="s">
         <v>384</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>474</v>
       </c>
-      <c r="F83" t="s">
-        <v>385</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>475</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>476</v>
-      </c>
-      <c r="I83" t="s">
-        <v>477</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
       </c>
       <c r="K83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5357,31 +5354,31 @@
         <v>286</v>
       </c>
       <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
         <v>386</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" t="s">
+        <v>478</v>
+      </c>
+      <c r="G84" t="s">
+        <v>479</v>
+      </c>
+      <c r="H84" t="s">
         <v>387</v>
       </c>
-      <c r="E84" t="s">
-        <v>478</v>
-      </c>
-      <c r="F84" t="s">
-        <v>479</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>480</v>
-      </c>
-      <c r="H84" t="s">
-        <v>388</v>
-      </c>
-      <c r="I84" t="s">
-        <v>481</v>
       </c>
       <c r="J84" s="2">
         <v>4</v>
       </c>
       <c r="K84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5392,31 +5389,31 @@
         <v>286</v>
       </c>
       <c r="C85" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" t="s">
         <v>389</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>390</v>
       </c>
-      <c r="E85" t="s">
-        <v>391</v>
-      </c>
       <c r="F85" t="s">
+        <v>481</v>
+      </c>
+      <c r="G85" t="s">
         <v>482</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>483</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>484</v>
-      </c>
-      <c r="I85" t="s">
-        <v>485</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5430,22 +5427,22 @@
         <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E86" t="s">
+        <v>399</v>
+      </c>
+      <c r="F86" t="s">
         <v>400</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>401</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>402</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>403</v>
-      </c>
-      <c r="I86" t="s">
-        <v>404</v>
       </c>
       <c r="J86" s="2">
         <v>5</v>
@@ -5462,28 +5459,28 @@
         <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
+        <v>454</v>
+      </c>
+      <c r="G87" t="s">
         <v>455</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>456</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>457</v>
-      </c>
-      <c r="I87" t="s">
-        <v>458</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5497,22 +5494,22 @@
         <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E88" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" t="s">
         <v>406</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>407</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>408</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>409</v>
-      </c>
-      <c r="I88" t="s">
-        <v>410</v>
       </c>
       <c r="J88" s="2">
         <v>3</v>
@@ -5529,22 +5526,22 @@
         <v>102</v>
       </c>
       <c r="D89" t="s">
+        <v>393</v>
+      </c>
+      <c r="E89" t="s">
         <v>394</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>395</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>396</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>397</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>398</v>
-      </c>
-      <c r="I89" t="s">
-        <v>399</v>
       </c>
       <c r="J89" s="2">
         <v>5</v>
@@ -5558,31 +5555,31 @@
         <v>286</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G90" t="s">
         <v>446</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
+        <v>444</v>
+      </c>
+      <c r="I90" t="s">
         <v>447</v>
-      </c>
-      <c r="H90" t="s">
-        <v>445</v>
-      </c>
-      <c r="I90" t="s">
-        <v>448</v>
       </c>
       <c r="J90" s="2">
         <v>4</v>
       </c>
       <c r="K90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5593,33 +5590,28 @@
         <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" t="s">
         <v>412</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>413</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>414</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>415</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>416</v>
-      </c>
-      <c r="I91" t="s">
-        <v>417</v>
       </c>
       <c r="J91" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5633,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/aio1.xlsx
+++ b/aio1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ygImsRv7kz3pQHk0H7GDL+aenOaFj2vbL3H6m6PlYhEfLcsdbjpkeBoXORTBSxu0L6TIKarbTZjF0QmmIWm1mg==" workbookSaltValue="07jp1mjl5qPULBhBXftvSg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="6mLOMwHsTXF7wtojsHwyTW2SpKuX78BltwxvE8BRFmjfWW/7d+/4mkWDYGNsaUp5aN6iQx+ZBpNEYlOZWDXCSA==" workbookSaltValue="+yEQ2m5OHgSjaR0+qRVSKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -2493,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5626,7 +5626,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
